--- a/Albatross_Raw_Data/Spratelloides_delicatulus.xlsx
+++ b/Albatross_Raw_Data/Spratelloides_delicatulus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C561C-C44D-47CA-986E-3752A5EC773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADDC35-31AC-44A1-B399-D3C3F842D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B9E04C2-E055-4CEA-A0C0-9E655F2F78B7}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A6F4E5-353B-4F4B-BC48-E49BEB452B14}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2576,14 +2576,13 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="E63" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2">
         <v>45.4</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="3"/>

--- a/Albatross_Raw_Data/Spratelloides_delicatulus.xlsx
+++ b/Albatross_Raw_Data/Spratelloides_delicatulus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADDC35-31AC-44A1-B399-D3C3F842D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962ADD76-53E5-42F5-A432-A8FF08304996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B9E04C2-E055-4CEA-A0C0-9E655F2F78B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="14">
   <si>
     <t>Species</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>TL_cm</t>
+  </si>
+  <si>
+    <t>5_16_2023</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A6F4E5-353B-4F4B-BC48-E49BEB452B14}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="Q119" sqref="Q119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,7 +2143,7 @@
         <v>49.6</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" ref="G50:H65" si="3">E50/10</f>
+        <f t="shared" ref="G50:H63" si="3">E50/10</f>
         <v>4.32</v>
       </c>
       <c r="H50" s="2">
@@ -2615,11 +2618,11 @@
         <v>38.1</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G64:H79" si="4">E64/10</f>
         <v>3.35</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.81</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -2649,11 +2652,11 @@
         <v>38.6</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4299999999999997</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8600000000000003</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -2683,7 +2686,7 @@
         <v>54</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:H67" si="4">E66/10</f>
+        <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
       <c r="H66" s="2">
@@ -2729,6 +2732,1978 @@
       </c>
       <c r="J67" s="3">
         <v>138979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F68" s="2">
+        <v>21</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="4"/>
+        <v>2.08</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F70" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.89</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="F71" s="2">
+        <v>22</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="4"/>
+        <v>2.06</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="F72" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="4"/>
+        <v>2.29</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="F73" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="4"/>
+        <v>2.19</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="4"/>
+        <v>2.29</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E74" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F74" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="4"/>
+        <v>1.89</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="4"/>
+        <v>2.35</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2">
+        <v>75</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E76" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5300000000000002</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2">
+        <v>76</v>
+      </c>
+      <c r="D77" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="F77" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="4"/>
+        <v>2.23</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="F78" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="F79" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="4"/>
+        <v>2.15</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="4"/>
+        <v>2.27</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="F80" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" ref="G80:H125" si="5">E80/10</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="5"/>
+        <v>2.37</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2">
+        <v>81</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>21</v>
+      </c>
+      <c r="F82" s="2">
+        <v>23</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="5"/>
+        <v>2.38</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2">
+        <v>83</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="F84" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="5"/>
+        <v>1.98</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="5"/>
+        <v>2.16</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="F85" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="5"/>
+        <v>2.23</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="F86" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="5"/>
+        <v>2.06</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="5"/>
+        <v>2.79</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>2.21</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>2.38</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2">
+        <v>87</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E88" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F88" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="5"/>
+        <v>1.86</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9899999999999998</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>88</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F89" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="5"/>
+        <v>2.27</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <v>89</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1100000000000003</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="F91" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="5"/>
+        <v>2.16</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="F92" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="5"/>
+        <v>2.16</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2">
+        <v>92</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="F93" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="5"/>
+        <v>1.97</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="3">
+        <v>150772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2">
+        <v>93</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E94" s="2">
+        <v>46</v>
+      </c>
+      <c r="F94" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="5"/>
+        <v>5.04</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2">
+        <v>94</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="E95" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="F95" s="2">
+        <v>60</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="5"/>
+        <v>5.34</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2">
+        <v>95</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.421</v>
+      </c>
+      <c r="E96" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="5"/>
+        <v>5.15</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="5"/>
+        <v>5.65</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2">
+        <v>96</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E97" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="F97" s="2">
+        <v>52.3</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="5"/>
+        <v>4.88</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="5"/>
+        <v>5.2299999999999995</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2">
+        <v>97</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.581</v>
+      </c>
+      <c r="E98" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="F98" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="5"/>
+        <v>5.26</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="5"/>
+        <v>5.75</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2">
+        <v>98</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E99" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F99" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="5"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2">
+        <v>99</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="E100" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="F100" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="5"/>
+        <v>5.45</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="5"/>
+        <v>5.89</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2">
+        <v>100</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="E101" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="F101" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="5"/>
+        <v>5.4799999999999995</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="5"/>
+        <v>6.07</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2">
+        <v>101</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E102" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F102" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="5"/>
+        <v>3.45</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="5"/>
+        <v>3.84</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <v>102</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.018</v>
+      </c>
+      <c r="E103" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="F103" s="2">
+        <v>52</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="5"/>
+        <v>4.68</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="5"/>
+        <v>5.2</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2">
+        <v>103</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="E104" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="F104" s="2">
+        <v>56</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="5"/>
+        <v>4.93</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2">
+        <v>104</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E105" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F105" s="2">
+        <v>47.4</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="5"/>
+        <v>4.29</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" si="5"/>
+        <v>4.74</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2">
+        <v>105</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.208</v>
+      </c>
+      <c r="E106" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="F106" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="5"/>
+        <v>4.96</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" si="5"/>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="2">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>106</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.282</v>
+      </c>
+      <c r="E107" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="F107" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="5"/>
+        <v>4.96</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="5"/>
+        <v>5.64</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2">
+        <v>107</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.073</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="F108" s="2">
+        <v>50.3</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="2">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2">
+        <v>108</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E109" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="F109" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="5"/>
+        <v>4.32</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="5"/>
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2">
+        <v>109</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E110" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="5"/>
+        <v>4.76</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="2">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2">
+        <v>110</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="E111" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="F111" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="5"/>
+        <v>5.12</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="5"/>
+        <v>5.67</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2">
+        <v>111</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.222</v>
+      </c>
+      <c r="E112" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="F112" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="5"/>
+        <v>4.87</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="5"/>
+        <v>5.36</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2">
+        <v>112</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="E113" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="F113" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="5"/>
+        <v>4.68</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" si="5"/>
+        <v>5.08</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2">
+        <v>113</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E114" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="5"/>
+        <v>4.21</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2">
+        <v>114</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E115" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="F115" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" si="5"/>
+        <v>4.63</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2">
+        <v>115</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1.498</v>
+      </c>
+      <c r="E116" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="F116" s="2">
+        <v>57</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="5"/>
+        <v>5.14</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2">
+        <v>8</v>
+      </c>
+      <c r="C117" s="2">
+        <v>116</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E117" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="F117" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="5"/>
+        <v>4.92</v>
+      </c>
+      <c r="H117" s="2">
+        <f t="shared" si="5"/>
+        <v>5.41</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="E118" s="2">
+        <v>51.8</v>
+      </c>
+      <c r="F118" s="2">
+        <v>57</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="5"/>
+        <v>5.18</v>
+      </c>
+      <c r="H118" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2">
+        <v>118</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1.194</v>
+      </c>
+      <c r="E119" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="F119" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="H119" s="2">
+        <f t="shared" si="5"/>
+        <v>5.45</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2">
+        <v>119</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E120" s="2">
+        <v>31</v>
+      </c>
+      <c r="F120" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="H120" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4200000000000004</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2">
+        <v>120</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1.802</v>
+      </c>
+      <c r="E121" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="F121" s="2">
+        <v>62</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="5"/>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="H121" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2">
+        <v>121</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E122" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F122" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H122" s="2">
+        <f t="shared" si="5"/>
+        <v>4.67</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2">
+        <v>122</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="F123" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="5"/>
+        <v>4.46</v>
+      </c>
+      <c r="H123" s="2">
+        <f t="shared" si="5"/>
+        <v>4.88</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2">
+        <v>123</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E124" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="F124" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="H124" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="3">
+        <v>138969</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2">
+        <v>8</v>
+      </c>
+      <c r="C125" s="2">
+        <v>124</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E125" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F125" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="5"/>
+        <v>4.29</v>
+      </c>
+      <c r="H125" s="2">
+        <f t="shared" si="5"/>
+        <v>4.67</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="3">
+        <v>138969</v>
       </c>
     </row>
   </sheetData>
